--- a/Program/Other/LM036_底稿_第一類各項統計表2.xlsx
+++ b/Program/Other/LM036_底稿_第一類各項統計表2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="82" r:id="rId1"/>
@@ -1430,7 +1430,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1440,12 +1440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,7 +2081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2277,7 +2271,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="21" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="21" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2424,7 +2417,7 @@
     <xf numFmtId="10" fontId="55" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="60" fillId="4" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="60" fillId="3" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2607,7 +2600,6 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="35" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2653,7 +2645,7 @@
     <xf numFmtId="182" fontId="79" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2680,108 +2672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2811,6 +2701,109 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="22" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="%" xfId="1"/>
@@ -10228,7 +10221,7 @@
   </sheetPr>
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13:XFD15"/>
       <selection pane="topRight" activeCell="A13" sqref="A13:XFD15"/>
@@ -10241,7 +10234,7 @@
     <col min="1" max="1" width="21.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="20.81640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="56.6328125" style="176"/>
+    <col min="17" max="17" width="56.6328125" style="175"/>
     <col min="18" max="18" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="56.6328125" style="4"/>
     <col min="20" max="20" width="56.6328125" style="2"/>
@@ -10249,10 +10242,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -10269,780 +10262,780 @@
       <c r="P1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="160"/>
+      <c r="Q1" s="159"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="29"/>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98" t="str">
+      <c r="B2" s="236"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97" t="str">
         <f>LEFT(N2,3)&amp;" to "&amp;LEFT(O2,3)</f>
         <v xml:space="preserve"> to </v>
       </c>
-      <c r="Q2" s="161"/>
-    </row>
-    <row r="3" spans="1:20" s="106" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="226" t="s">
+      <c r="Q2" s="160"/>
+    </row>
+    <row r="3" spans="1:20" s="105" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105" t="e">
+      <c r="B3" s="232"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="104" t="e">
         <f>(O3-N3)/N3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A4" s="222" t="s">
+      <c r="Q3" s="161"/>
+      <c r="R3" s="183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A4" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105" t="e">
+      <c r="B4" s="226"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104" t="e">
         <f t="shared" ref="P4:P33" si="0">(O4-N4)/N4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="163"/>
-    </row>
-    <row r="5" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="222" t="s">
+      <c r="Q4" s="162"/>
+    </row>
+    <row r="5" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="223"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105" t="e">
+      <c r="B5" s="226"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="164"/>
-    </row>
-    <row r="6" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="222" t="s">
+      <c r="Q5" s="163"/>
+    </row>
+    <row r="6" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="105" t="e">
+      <c r="B6" s="226"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="107"/>
-    </row>
-    <row r="7" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="222" t="s">
+      <c r="Q6" s="164"/>
+      <c r="R6" s="106"/>
+    </row>
+    <row r="7" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="105" t="e">
+      <c r="B7" s="226"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="107"/>
-    </row>
-    <row r="8" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="222" t="s">
+      <c r="Q7" s="163"/>
+      <c r="R7" s="106"/>
+    </row>
+    <row r="8" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105" t="e">
+      <c r="B8" s="226"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="107"/>
-    </row>
-    <row r="9" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="222" t="s">
+      <c r="Q8" s="184"/>
+      <c r="R8" s="106"/>
+    </row>
+    <row r="9" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="223"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="105" t="e">
+      <c r="B9" s="226"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="212"/>
-    </row>
-    <row r="10" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="226" t="s">
+      <c r="Q9" s="210"/>
+    </row>
+    <row r="10" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="227"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="185"/>
-    </row>
-    <row r="11" spans="1:20" s="110" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="B10" s="232"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="184"/>
+    </row>
+    <row r="11" spans="1:20" s="109" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="105" t="e">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="166"/>
-    </row>
-    <row r="12" spans="1:20" s="110" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="111" t="s">
+      <c r="Q11" s="165"/>
+    </row>
+    <row r="12" spans="1:20" s="109" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="105" t="e">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="167"/>
-    </row>
-    <row r="13" spans="1:20" s="110" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="109" t="s">
+      <c r="Q12" s="166"/>
+    </row>
+    <row r="13" spans="1:20" s="109" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="105" t="e">
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="165"/>
-    </row>
-    <row r="14" spans="1:20" s="110" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="111" t="s">
+      <c r="Q13" s="164"/>
+    </row>
+    <row r="14" spans="1:20" s="109" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="105" t="e">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="165"/>
-    </row>
-    <row r="15" spans="1:20" s="106" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="228" t="s">
+      <c r="Q14" s="164"/>
+    </row>
+    <row r="15" spans="1:20" s="105" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="229"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="165"/>
-    </row>
-    <row r="16" spans="1:20" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="222" t="s">
+      <c r="B15" s="234"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="164"/>
+    </row>
+    <row r="16" spans="1:20" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="225" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="223"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="105" t="e">
+      <c r="B16" s="226"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="166"/>
-    </row>
-    <row r="17" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="222" t="s">
+      <c r="Q16" s="165"/>
+    </row>
+    <row r="17" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="225" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="223"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="105" t="e">
+      <c r="B17" s="226"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="166"/>
-    </row>
-    <row r="18" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="222" t="s">
+      <c r="Q17" s="165"/>
+    </row>
+    <row r="18" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A18" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="223"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="105" t="e">
+      <c r="B18" s="226"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q18" s="165"/>
-    </row>
-    <row r="19" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="222" t="s">
+      <c r="Q18" s="164"/>
+    </row>
+    <row r="19" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="223"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="105" t="e">
+      <c r="B19" s="226"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q19" s="165"/>
-    </row>
-    <row r="20" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="222" t="s">
+      <c r="Q19" s="164"/>
+    </row>
+    <row r="20" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A20" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="223"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="105" t="e">
+      <c r="B20" s="226"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q20" s="165"/>
-    </row>
-    <row r="21" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="218" t="s">
+      <c r="Q20" s="164"/>
+    </row>
+    <row r="21" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A21" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="105" t="e">
+      <c r="B21" s="230"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="165"/>
-    </row>
-    <row r="22" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="230" t="s">
+      <c r="Q21" s="164"/>
+    </row>
+    <row r="22" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A22" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="105" t="e">
+      <c r="B22" s="228"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="168"/>
-    </row>
-    <row r="23" spans="1:17" s="106" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="220" t="s">
+      <c r="Q22" s="167"/>
+    </row>
+    <row r="23" spans="1:17" s="105" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A23" s="237" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="221"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="168"/>
-    </row>
-    <row r="24" spans="1:17" s="106" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A24" s="222" t="s">
+      <c r="B23" s="238"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="167"/>
+    </row>
+    <row r="24" spans="1:17" s="105" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A24" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="223"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="105" t="e">
+      <c r="B24" s="226"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="168"/>
-    </row>
-    <row r="25" spans="1:17" s="106" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="222" t="s">
+      <c r="Q24" s="167"/>
+    </row>
+    <row r="25" spans="1:17" s="105" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="105" t="e">
+      <c r="B25" s="226"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="168"/>
-    </row>
-    <row r="26" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="222" t="s">
+      <c r="Q25" s="167"/>
+    </row>
+    <row r="26" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A26" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="223"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="105" t="e">
+      <c r="B26" s="226"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="168"/>
-    </row>
-    <row r="27" spans="1:17" s="106" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="222" t="s">
+      <c r="Q26" s="167"/>
+    </row>
+    <row r="27" spans="1:17" s="105" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A27" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="223"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="105" t="e">
+      <c r="B27" s="226"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="168"/>
-    </row>
-    <row r="28" spans="1:17" s="106" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="222" t="s">
+      <c r="Q27" s="167"/>
+    </row>
+    <row r="28" spans="1:17" s="105" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A28" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="105" t="e">
+      <c r="B28" s="226"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="168"/>
-    </row>
-    <row r="29" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="218" t="s">
+      <c r="Q28" s="167"/>
+    </row>
+    <row r="29" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A29" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="219"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="105" t="e">
+      <c r="B29" s="230"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="168"/>
-    </row>
-    <row r="30" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A30" s="220" t="s">
+      <c r="Q29" s="167"/>
+    </row>
+    <row r="30" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A30" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="221"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="168"/>
-    </row>
-    <row r="31" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="222" t="s">
+      <c r="B30" s="238"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="167"/>
+    </row>
+    <row r="31" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A31" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="223"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="105" t="e">
+      <c r="B31" s="226"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q31" s="168"/>
-    </row>
-    <row r="32" spans="1:17" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="222" t="s">
+      <c r="Q31" s="167"/>
+    </row>
+    <row r="32" spans="1:17" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A32" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="223"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="105" t="e">
+      <c r="B32" s="226"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q32" s="168"/>
-    </row>
-    <row r="33" spans="1:21" s="92" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="218" t="s">
+      <c r="Q32" s="167"/>
+    </row>
+    <row r="33" spans="1:21" s="91" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A33" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="219"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="105" t="e">
+      <c r="B33" s="230"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q33" s="168"/>
+      <c r="Q33" s="167"/>
     </row>
     <row r="34" spans="1:21" ht="16.5">
       <c r="C34" s="44"/>
@@ -11059,7 +11052,7 @@
       <c r="N34" s="44"/>
       <c r="O34" s="44"/>
       <c r="P34" s="44"/>
-      <c r="Q34" s="169"/>
+      <c r="Q34" s="168"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="37"/>
@@ -11084,11 +11077,11 @@
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
-      <c r="Q35" s="170"/>
+      <c r="Q35" s="169"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="81"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="80"/>
     </row>
     <row r="36" spans="1:21" s="53" customFormat="1" ht="16.5">
       <c r="A36" s="25"/>
@@ -11107,7 +11100,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="171"/>
+      <c r="Q36" s="170"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="51"/>
@@ -11130,7 +11123,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="171"/>
+      <c r="Q37" s="170"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="51"/>
@@ -11153,7 +11146,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="171"/>
+      <c r="Q38" s="170"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="51"/>
@@ -11176,7 +11169,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-      <c r="Q39" s="171"/>
+      <c r="Q39" s="170"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="51"/>
@@ -11185,23 +11178,23 @@
     <row r="40" spans="1:21" s="53" customFormat="1" ht="16.5">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="172"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="171"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
       <c r="T40" s="51"/>
       <c r="U40" s="52"/>
     </row>
@@ -11220,7 +11213,7 @@
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
-      <c r="Q41" s="152"/>
+      <c r="Q41" s="151"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
       <c r="T41" s="37"/>
@@ -11241,7 +11234,7 @@
       <c r="N42" s="31"/>
       <c r="O42" s="31"/>
       <c r="P42" s="31"/>
-      <c r="Q42" s="173"/>
+      <c r="Q42" s="172"/>
       <c r="R42" s="31"/>
       <c r="S42" s="31"/>
       <c r="T42" s="32"/>
@@ -11262,31 +11255,31 @@
       <c r="N43" s="31"/>
       <c r="O43" s="31"/>
       <c r="P43" s="31"/>
-      <c r="Q43" s="173"/>
+      <c r="Q43" s="172"/>
       <c r="R43" s="31"/>
       <c r="S43" s="31"/>
       <c r="T43" s="32"/>
       <c r="U43" s="9"/>
     </row>
     <row r="44" spans="1:21" ht="16.5">
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="174"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="84"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="173"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="83"/>
       <c r="U44" s="9"/>
     </row>
     <row r="45" spans="1:21" ht="16.5">
@@ -11304,7 +11297,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="175"/>
+      <c r="Q45" s="174"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="8"/>
@@ -11327,7 +11320,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="175"/>
+      <c r="Q46" s="174"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="8"/>
@@ -11350,7 +11343,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="175"/>
+      <c r="Q47" s="174"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="8"/>
@@ -11373,7 +11366,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="175"/>
+      <c r="Q48" s="174"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="8"/>
@@ -11396,7 +11389,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="175"/>
+      <c r="Q49" s="174"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="8"/>
@@ -11419,7 +11412,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="175"/>
+      <c r="Q50" s="174"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="8"/>
@@ -11442,7 +11435,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="175"/>
+      <c r="Q51" s="174"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="8"/>
@@ -11465,7 +11458,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="175"/>
+      <c r="Q52" s="174"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="8"/>
@@ -11488,7 +11481,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="175"/>
+      <c r="Q53" s="174"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="8"/>
@@ -11511,7 +11504,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="175"/>
+      <c r="Q54" s="174"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="8"/>
@@ -11534,7 +11527,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="175"/>
+      <c r="Q55" s="174"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="8"/>
@@ -11557,7 +11550,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="175"/>
+      <c r="Q56" s="174"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="8"/>
@@ -11580,7 +11573,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="175"/>
+      <c r="Q57" s="174"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="8"/>
@@ -11603,7 +11596,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="175"/>
+      <c r="Q58" s="174"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="8"/>
@@ -11626,7 +11619,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="175"/>
+      <c r="Q59" s="174"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="8"/>
@@ -11649,7 +11642,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="175"/>
+      <c r="Q60" s="174"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="8"/>
@@ -11672,7 +11665,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="175"/>
+      <c r="Q61" s="174"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="8"/>
@@ -11695,7 +11688,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="175"/>
+      <c r="Q62" s="174"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="8"/>
@@ -11718,7 +11711,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="175"/>
+      <c r="Q63" s="174"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="8"/>
@@ -11741,7 +11734,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="175"/>
+      <c r="Q64" s="174"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="8"/>
@@ -11764,7 +11757,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="175"/>
+      <c r="Q65" s="174"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="8"/>
@@ -11787,7 +11780,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="175"/>
+      <c r="Q66" s="174"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="8"/>
@@ -11810,7 +11803,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="175"/>
+      <c r="Q67" s="174"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="8"/>
@@ -11833,7 +11826,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="175"/>
+      <c r="Q68" s="174"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="8"/>
@@ -12363,22 +12356,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
@@ -12391,6 +12368,22 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12408,11 +12401,11 @@
   </sheetPr>
   <dimension ref="A1:CD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="75" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="AN42" sqref="D4:AN42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -13133,10 +13126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="252" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="248"/>
+      <c r="B1" s="252"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -13186,52 +13179,52 @@
       <c r="CC1" s="11"/>
     </row>
     <row r="2" spans="1:81" s="13" customFormat="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="232"/>
-      <c r="AB2" s="232"/>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="232"/>
-      <c r="AJ2" s="232"/>
-      <c r="AK2" s="232"/>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="244"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="239"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="239"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="239"/>
+      <c r="AJ2" s="239"/>
+      <c r="AK2" s="239"/>
+      <c r="AL2" s="239"/>
+      <c r="AM2" s="239"/>
+      <c r="AN2" s="242"/>
       <c r="AO2" s="63" t="s">
         <v>66</v>
       </c>
@@ -13240,63 +13233,63 @@
       </c>
     </row>
     <row r="3" spans="1:81" s="13" customFormat="1" ht="27">
-      <c r="A3" s="250"/>
-      <c r="B3" s="236"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="238"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="235"/>
-      <c r="W3" s="235"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="233"/>
-      <c r="Z3" s="233"/>
-      <c r="AA3" s="233"/>
-      <c r="AB3" s="233"/>
-      <c r="AC3" s="233"/>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="233"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="233"/>
-      <c r="AH3" s="233"/>
-      <c r="AI3" s="233"/>
-      <c r="AJ3" s="233"/>
-      <c r="AK3" s="233"/>
-      <c r="AL3" s="233"/>
-      <c r="AM3" s="233"/>
-      <c r="AN3" s="245"/>
-      <c r="AO3" s="124" t="s">
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="245"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="243"/>
+      <c r="AO3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="AP3" s="124" t="s">
+      <c r="AP3" s="123" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A4" s="253"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="209">
+      <c r="A4" s="217"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207">
         <f>SUM(D4,AN4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="71">
         <v>0</v>
       </c>
       <c r="E4" s="71">
@@ -13418,14 +13411,14 @@
       <c r="CC4" s="11"/>
     </row>
     <row r="5" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A5" s="253"/>
-      <c r="B5" s="210"/>
-      <c r="C5" s="209">
+      <c r="A5" s="217"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="207">
         <f t="shared" ref="C5:C42" si="0">SUM(D5,AN5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="73">
+      <c r="E5" s="71">
         <v>0</v>
       </c>
       <c r="F5" s="71">
@@ -13544,15 +13537,15 @@
       <c r="CC5" s="11"/>
     </row>
     <row r="6" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A6" s="253"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="209">
+      <c r="A6" s="217"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="73">
+      <c r="F6" s="71">
         <v>0</v>
       </c>
       <c r="G6" s="71">
@@ -13668,16 +13661,16 @@
       <c r="CC6" s="11"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="253"/>
-      <c r="B7" s="210"/>
-      <c r="C7" s="209">
+      <c r="A7" s="217"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
-      <c r="G7" s="73">
+      <c r="G7" s="71">
         <v>0</v>
       </c>
       <c r="H7" s="71">
@@ -13790,9 +13783,9 @@
       <c r="CC7" s="11"/>
     </row>
     <row r="8" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A8" s="253"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="209">
+      <c r="A8" s="217"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13800,7 +13793,7 @@
       <c r="E8" s="72"/>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
-      <c r="H8" s="73">
+      <c r="H8" s="71">
         <v>0</v>
       </c>
       <c r="I8" s="71">
@@ -13910,9 +13903,9 @@
       <c r="CC8" s="11"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="253"/>
-      <c r="B9" s="210"/>
-      <c r="C9" s="209">
+      <c r="A9" s="217"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13921,7 +13914,7 @@
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
-      <c r="I9" s="73">
+      <c r="I9" s="71">
         <v>0</v>
       </c>
       <c r="J9" s="71">
@@ -14028,9 +14021,9 @@
       <c r="CC9" s="11"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="253"/>
-      <c r="B10" s="210"/>
-      <c r="C10" s="209">
+      <c r="A10" s="217"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14040,7 +14033,7 @@
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="73">
+      <c r="J10" s="71">
         <v>0</v>
       </c>
       <c r="K10" s="71">
@@ -14144,9 +14137,9 @@
       <c r="CC10" s="11"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="253"/>
-      <c r="B11" s="210"/>
-      <c r="C11" s="209">
+      <c r="A11" s="217"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14157,7 +14150,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="73">
+      <c r="K11" s="71">
         <v>0</v>
       </c>
       <c r="L11" s="71">
@@ -14258,9 +14251,9 @@
       <c r="CC11" s="11"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="253"/>
-      <c r="B12" s="210"/>
-      <c r="C12" s="209">
+      <c r="A12" s="217"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14272,7 +14265,7 @@
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
-      <c r="L12" s="73">
+      <c r="L12" s="71">
         <v>0</v>
       </c>
       <c r="M12" s="71">
@@ -14370,9 +14363,9 @@
       <c r="CC12" s="11"/>
     </row>
     <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="253"/>
-      <c r="B13" s="210"/>
-      <c r="C13" s="209">
+      <c r="A13" s="217"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14385,7 +14378,7 @@
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
-      <c r="M13" s="73">
+      <c r="M13" s="71">
         <v>0</v>
       </c>
       <c r="N13" s="71">
@@ -14480,9 +14473,9 @@
       <c r="CC13" s="11"/>
     </row>
     <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="253"/>
-      <c r="B14" s="210"/>
-      <c r="C14" s="209">
+      <c r="A14" s="217"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14496,7 +14489,7 @@
       <c r="K14" s="72"/>
       <c r="L14" s="72"/>
       <c r="M14" s="72"/>
-      <c r="N14" s="73">
+      <c r="N14" s="71">
         <v>0</v>
       </c>
       <c r="O14" s="71">
@@ -14588,9 +14581,9 @@
       <c r="CC14" s="11"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="253"/>
-      <c r="B15" s="210"/>
-      <c r="C15" s="209">
+      <c r="A15" s="217"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14605,7 +14598,7 @@
       <c r="L15" s="72"/>
       <c r="M15" s="72"/>
       <c r="N15" s="72"/>
-      <c r="O15" s="73">
+      <c r="O15" s="71">
         <v>0</v>
       </c>
       <c r="P15" s="71">
@@ -14694,9 +14687,9 @@
       <c r="CC15" s="11"/>
     </row>
     <row r="16" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A16" s="253"/>
-      <c r="B16" s="210"/>
-      <c r="C16" s="209">
+      <c r="A16" s="217"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14712,7 +14705,7 @@
       <c r="M16" s="72"/>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
-      <c r="P16" s="73">
+      <c r="P16" s="71">
         <v>0</v>
       </c>
       <c r="Q16" s="71">
@@ -14798,9 +14791,9 @@
       <c r="CC16" s="11"/>
     </row>
     <row r="17" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A17" s="253"/>
-      <c r="B17" s="210"/>
-      <c r="C17" s="209">
+      <c r="A17" s="217"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14817,7 +14810,7 @@
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="73">
+      <c r="Q17" s="71">
         <v>0</v>
       </c>
       <c r="R17" s="71">
@@ -14900,9 +14893,9 @@
       <c r="CC17" s="11"/>
     </row>
     <row r="18" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A18" s="253"/>
-      <c r="B18" s="210"/>
-      <c r="C18" s="209">
+      <c r="A18" s="217"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14920,7 +14913,7 @@
       <c r="O18" s="72"/>
       <c r="P18" s="72"/>
       <c r="Q18" s="72"/>
-      <c r="R18" s="73">
+      <c r="R18" s="71">
         <v>0</v>
       </c>
       <c r="S18" s="71">
@@ -15000,9 +14993,9 @@
       <c r="CC18" s="11"/>
     </row>
     <row r="19" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A19" s="253"/>
-      <c r="B19" s="210"/>
-      <c r="C19" s="209">
+      <c r="A19" s="217"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15021,7 +15014,7 @@
       <c r="P19" s="72"/>
       <c r="Q19" s="72"/>
       <c r="R19" s="72"/>
-      <c r="S19" s="73">
+      <c r="S19" s="71">
         <v>0</v>
       </c>
       <c r="T19" s="71">
@@ -15098,9 +15091,9 @@
       <c r="CC19" s="11"/>
     </row>
     <row r="20" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A20" s="253"/>
-      <c r="B20" s="210"/>
-      <c r="C20" s="209">
+      <c r="A20" s="217"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15120,7 +15113,7 @@
       <c r="Q20" s="72"/>
       <c r="R20" s="72"/>
       <c r="S20" s="72"/>
-      <c r="T20" s="73">
+      <c r="T20" s="71">
         <v>0</v>
       </c>
       <c r="U20" s="71">
@@ -15194,9 +15187,9 @@
       <c r="CC20" s="11"/>
     </row>
     <row r="21" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A21" s="253"/>
-      <c r="B21" s="210"/>
-      <c r="C21" s="209">
+      <c r="A21" s="217"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15217,7 +15210,7 @@
       <c r="R21" s="72"/>
       <c r="S21" s="72"/>
       <c r="T21" s="72"/>
-      <c r="U21" s="73">
+      <c r="U21" s="71">
         <v>0</v>
       </c>
       <c r="V21" s="71">
@@ -15288,9 +15281,9 @@
       <c r="CC21" s="11"/>
     </row>
     <row r="22" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A22" s="253"/>
-      <c r="B22" s="210"/>
-      <c r="C22" s="209">
+      <c r="A22" s="217"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15312,7 +15305,7 @@
       <c r="S22" s="72"/>
       <c r="T22" s="72"/>
       <c r="U22" s="72"/>
-      <c r="V22" s="73">
+      <c r="V22" s="71">
         <v>0</v>
       </c>
       <c r="W22" s="71">
@@ -15380,32 +15373,32 @@
       <c r="CC22" s="11"/>
     </row>
     <row r="23" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A23" s="253"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="209">
+      <c r="A23" s="217"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="191">
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="259">
         <v>0</v>
       </c>
       <c r="X23" s="71">
@@ -15470,9 +15463,9 @@
       <c r="CC23" s="11"/>
     </row>
     <row r="24" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A24" s="253"/>
-      <c r="B24" s="210"/>
-      <c r="C24" s="209">
+      <c r="A24" s="217"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15496,7 +15489,7 @@
       <c r="U24" s="72"/>
       <c r="V24" s="72"/>
       <c r="W24" s="72"/>
-      <c r="X24" s="191">
+      <c r="X24" s="259">
         <v>0</v>
       </c>
       <c r="Y24" s="71">
@@ -15558,9 +15551,9 @@
       <c r="CC24" s="11"/>
     </row>
     <row r="25" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="254"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="209">
+      <c r="A25" s="218"/>
+      <c r="B25" s="208"/>
+      <c r="C25" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15585,7 +15578,7 @@
       <c r="V25" s="72"/>
       <c r="W25" s="72"/>
       <c r="X25" s="72"/>
-      <c r="Y25" s="191">
+      <c r="Y25" s="259">
         <v>0</v>
       </c>
       <c r="Z25" s="71">
@@ -15644,9 +15637,9 @@
       <c r="CC25" s="11"/>
     </row>
     <row r="26" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="254"/>
-      <c r="B26" s="210"/>
-      <c r="C26" s="209">
+      <c r="A26" s="218"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15672,7 +15665,7 @@
       <c r="W26" s="72"/>
       <c r="X26" s="72"/>
       <c r="Y26" s="72"/>
-      <c r="Z26" s="73">
+      <c r="Z26" s="71">
         <v>0</v>
       </c>
       <c r="AA26" s="71">
@@ -15717,7 +15710,7 @@
       <c r="AN26" s="71">
         <v>0</v>
       </c>
-      <c r="AO26" s="127"/>
+      <c r="AO26" s="126"/>
       <c r="AP26" s="56"/>
       <c r="BV26" s="11"/>
       <c r="BW26" s="11"/>
@@ -15728,36 +15721,36 @@
       <c r="CC26" s="11"/>
     </row>
     <row r="27" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="254"/>
-      <c r="B27" s="210"/>
-      <c r="C27" s="209">
+      <c r="A27" s="218"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="73">
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="71">
         <v>0</v>
       </c>
       <c r="AB27" s="71">
@@ -15799,7 +15792,7 @@
       <c r="AN27" s="71">
         <v>0</v>
       </c>
-      <c r="AO27" s="127"/>
+      <c r="AO27" s="126"/>
       <c r="AP27" s="56"/>
       <c r="BV27" s="11"/>
       <c r="BW27" s="11"/>
@@ -15810,37 +15803,37 @@
       <c r="CC27" s="11"/>
     </row>
     <row r="28" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="254"/>
-      <c r="B28" s="210"/>
-      <c r="C28" s="209">
+      <c r="A28" s="218"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="73">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="71">
         <v>0</v>
       </c>
       <c r="AC28" s="71">
@@ -15879,7 +15872,7 @@
       <c r="AN28" s="71">
         <v>0</v>
       </c>
-      <c r="AO28" s="127"/>
+      <c r="AO28" s="126"/>
       <c r="AP28" s="56"/>
       <c r="BV28" s="11"/>
       <c r="BW28" s="11"/>
@@ -15890,38 +15883,38 @@
       <c r="CC28" s="11"/>
     </row>
     <row r="29" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="254"/>
-      <c r="B29" s="210"/>
-      <c r="C29" s="209">
+      <c r="A29" s="218"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="73">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="71">
         <v>0</v>
       </c>
       <c r="AD29" s="71">
@@ -15968,39 +15961,39 @@
       <c r="CC29" s="11"/>
     </row>
     <row r="30" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="254"/>
-      <c r="B30" s="210"/>
-      <c r="C30" s="209">
+      <c r="A30" s="218"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="73">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="71">
         <v>0</v>
       </c>
       <c r="AE30" s="71">
@@ -16033,7 +16026,7 @@
       <c r="AN30" s="71">
         <v>0</v>
       </c>
-      <c r="AO30" s="127"/>
+      <c r="AO30" s="126"/>
       <c r="AP30" s="56"/>
       <c r="BV30" s="11"/>
       <c r="BW30" s="11"/>
@@ -16044,40 +16037,40 @@
       <c r="CC30" s="11"/>
     </row>
     <row r="31" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="254"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="209">
+      <c r="A31" s="218"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="73">
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="71">
         <v>0</v>
       </c>
       <c r="AF31" s="71">
@@ -16107,7 +16100,7 @@
       <c r="AN31" s="71">
         <v>0</v>
       </c>
-      <c r="AO31" s="127"/>
+      <c r="AO31" s="126"/>
       <c r="AP31" s="56"/>
       <c r="BV31" s="11"/>
       <c r="BW31" s="11"/>
@@ -16118,41 +16111,41 @@
       <c r="CC31" s="11"/>
     </row>
     <row r="32" spans="1:81" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="254"/>
-      <c r="B32" s="210"/>
-      <c r="C32" s="209">
+      <c r="A32" s="218"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="73">
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="71">
         <v>0</v>
       </c>
       <c r="AG32" s="71">
@@ -16190,42 +16183,42 @@
       <c r="CC32" s="11"/>
     </row>
     <row r="33" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="254"/>
-      <c r="B33" s="210"/>
-      <c r="C33" s="209">
+      <c r="A33" s="218"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="73">
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="71">
         <v>0</v>
       </c>
       <c r="AH33" s="71">
@@ -16249,7 +16242,7 @@
       <c r="AN33" s="71">
         <v>0</v>
       </c>
-      <c r="AO33" s="127"/>
+      <c r="AO33" s="126"/>
       <c r="AP33" s="56"/>
       <c r="BV33" s="11"/>
       <c r="BW33" s="11"/>
@@ -16260,43 +16253,43 @@
       <c r="CC33" s="11"/>
     </row>
     <row r="34" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="254"/>
-      <c r="B34" s="210"/>
-      <c r="C34" s="209">
+      <c r="A34" s="218"/>
+      <c r="B34" s="208"/>
+      <c r="C34" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="94"/>
-      <c r="AH34" s="73">
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="71">
         <v>0</v>
       </c>
       <c r="AI34" s="71">
@@ -16317,7 +16310,7 @@
       <c r="AN34" s="71">
         <v>0</v>
       </c>
-      <c r="AO34" s="127"/>
+      <c r="AO34" s="126"/>
       <c r="AP34" s="56"/>
       <c r="BV34" s="11"/>
       <c r="BW34" s="11"/>
@@ -16328,44 +16321,44 @@
       <c r="CC34" s="11"/>
     </row>
     <row r="35" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="254"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="209">
+      <c r="A35" s="218"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
-      <c r="AF35" s="94"/>
-      <c r="AG35" s="94"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
       <c r="AH35" s="72"/>
-      <c r="AI35" s="73">
+      <c r="AI35" s="71">
         <v>0</v>
       </c>
       <c r="AJ35" s="71">
@@ -16383,7 +16376,7 @@
       <c r="AN35" s="71">
         <v>0</v>
       </c>
-      <c r="AO35" s="127"/>
+      <c r="AO35" s="126"/>
       <c r="AP35" s="56"/>
       <c r="BV35" s="11"/>
       <c r="BW35" s="11"/>
@@ -16394,45 +16387,45 @@
       <c r="CC35" s="11"/>
     </row>
     <row r="36" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="254"/>
-      <c r="B36" s="210"/>
-      <c r="C36" s="209">
+      <c r="A36" s="218"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="94"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="94"/>
-      <c r="AE36" s="94"/>
-      <c r="AF36" s="94"/>
-      <c r="AG36" s="94"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
       <c r="AH36" s="72"/>
       <c r="AI36" s="72"/>
-      <c r="AJ36" s="73">
+      <c r="AJ36" s="71">
         <v>0</v>
       </c>
       <c r="AK36" s="71">
@@ -16447,7 +16440,7 @@
       <c r="AN36" s="71">
         <v>0</v>
       </c>
-      <c r="AO36" s="127"/>
+      <c r="AO36" s="126"/>
       <c r="AP36" s="56"/>
       <c r="BV36" s="11"/>
       <c r="BW36" s="11"/>
@@ -16458,46 +16451,46 @@
       <c r="CC36" s="11"/>
     </row>
     <row r="37" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="254"/>
-      <c r="B37" s="210"/>
-      <c r="C37" s="209">
+      <c r="A37" s="218"/>
+      <c r="B37" s="208"/>
+      <c r="C37" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="94"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="94"/>
-      <c r="AE37" s="94"/>
-      <c r="AF37" s="94"/>
-      <c r="AG37" s="94"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
       <c r="AH37" s="72"/>
       <c r="AI37" s="72"/>
       <c r="AJ37" s="72"/>
-      <c r="AK37" s="73">
+      <c r="AK37" s="71">
         <v>0</v>
       </c>
       <c r="AL37" s="71">
@@ -16509,7 +16502,7 @@
       <c r="AN37" s="71">
         <v>0</v>
       </c>
-      <c r="AO37" s="127"/>
+      <c r="AO37" s="126"/>
       <c r="AP37" s="56"/>
       <c r="BV37" s="11"/>
       <c r="BW37" s="11"/>
@@ -16520,47 +16513,47 @@
       <c r="CC37" s="11"/>
     </row>
     <row r="38" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="254"/>
-      <c r="B38" s="210"/>
-      <c r="C38" s="209">
+      <c r="A38" s="218"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
-      <c r="AB38" s="94"/>
-      <c r="AC38" s="94"/>
-      <c r="AD38" s="94"/>
-      <c r="AE38" s="94"/>
-      <c r="AF38" s="94"/>
-      <c r="AG38" s="94"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
       <c r="AH38" s="72"/>
       <c r="AI38" s="72"/>
       <c r="AJ38" s="72"/>
       <c r="AK38" s="72"/>
-      <c r="AL38" s="73">
+      <c r="AL38" s="71">
         <v>0</v>
       </c>
       <c r="AM38" s="71">
@@ -16569,7 +16562,7 @@
       <c r="AN38" s="71">
         <v>0</v>
       </c>
-      <c r="AO38" s="127"/>
+      <c r="AO38" s="126"/>
       <c r="AP38" s="56"/>
       <c r="BV38" s="11"/>
       <c r="BW38" s="11"/>
@@ -16580,54 +16573,54 @@
       <c r="CC38" s="11"/>
     </row>
     <row r="39" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="254"/>
-      <c r="B39" s="210"/>
-      <c r="C39" s="209">
+      <c r="A39" s="218"/>
+      <c r="B39" s="208"/>
+      <c r="C39" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
-      <c r="AB39" s="94"/>
-      <c r="AC39" s="94"/>
-      <c r="AD39" s="94"/>
-      <c r="AE39" s="94"/>
-      <c r="AF39" s="94"/>
-      <c r="AG39" s="94"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="93"/>
+      <c r="AG39" s="93"/>
       <c r="AH39" s="72"/>
       <c r="AI39" s="72"/>
       <c r="AJ39" s="72"/>
       <c r="AK39" s="72"/>
       <c r="AL39" s="72"/>
-      <c r="AM39" s="73">
+      <c r="AM39" s="71">
         <v>0</v>
       </c>
       <c r="AN39" s="71">
         <v>0</v>
       </c>
-      <c r="AO39" s="127"/>
+      <c r="AO39" s="126"/>
       <c r="AP39" s="56"/>
       <c r="BV39" s="11"/>
       <c r="BW39" s="11"/>
@@ -16638,52 +16631,52 @@
       <c r="CC39" s="11"/>
     </row>
     <row r="40" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="254"/>
-      <c r="B40" s="210"/>
-      <c r="C40" s="209">
+      <c r="A40" s="218"/>
+      <c r="B40" s="208"/>
+      <c r="C40" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="94"/>
-      <c r="AA40" s="94"/>
-      <c r="AB40" s="94"/>
-      <c r="AC40" s="94"/>
-      <c r="AD40" s="94"/>
-      <c r="AE40" s="94"/>
-      <c r="AF40" s="94"/>
-      <c r="AG40" s="94"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="93"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="93"/>
+      <c r="AF40" s="93"/>
+      <c r="AG40" s="93"/>
       <c r="AH40" s="72"/>
       <c r="AI40" s="72"/>
       <c r="AJ40" s="72"/>
       <c r="AK40" s="72"/>
       <c r="AL40" s="72"/>
       <c r="AM40" s="72"/>
-      <c r="AN40" s="73">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="127"/>
+      <c r="AN40" s="71">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="126"/>
       <c r="AP40" s="56"/>
       <c r="BV40" s="11"/>
       <c r="BW40" s="11"/>
@@ -16694,50 +16687,50 @@
       <c r="CC40" s="11"/>
     </row>
     <row r="41" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="254"/>
-      <c r="B41" s="210"/>
-      <c r="C41" s="209">
+      <c r="A41" s="218"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="94"/>
-      <c r="AA41" s="94"/>
-      <c r="AB41" s="94"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="94"/>
-      <c r="AE41" s="94"/>
-      <c r="AF41" s="94"/>
-      <c r="AG41" s="94"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="93"/>
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="93"/>
+      <c r="AG41" s="93"/>
       <c r="AH41" s="72"/>
       <c r="AI41" s="72"/>
       <c r="AJ41" s="72"/>
       <c r="AK41" s="72"/>
       <c r="AL41" s="72"/>
       <c r="AM41" s="72"/>
-      <c r="AN41" s="188"/>
-      <c r="AO41" s="127"/>
+      <c r="AN41" s="187"/>
+      <c r="AO41" s="126"/>
       <c r="AP41" s="56"/>
       <c r="BV41" s="11"/>
       <c r="BW41" s="11"/>
@@ -16748,50 +16741,50 @@
       <c r="CC41" s="11"/>
     </row>
     <row r="42" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="254"/>
-      <c r="B42" s="210"/>
-      <c r="C42" s="209">
+      <c r="A42" s="218"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="94"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="94"/>
-      <c r="AE42" s="94"/>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="94"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="93"/>
+      <c r="AG42" s="93"/>
       <c r="AH42" s="72"/>
       <c r="AI42" s="72"/>
       <c r="AJ42" s="72"/>
       <c r="AK42" s="72"/>
       <c r="AL42" s="72"/>
       <c r="AM42" s="72"/>
-      <c r="AN42" s="188"/>
-      <c r="AO42" s="127"/>
+      <c r="AN42" s="187"/>
+      <c r="AO42" s="126"/>
       <c r="AP42" s="56"/>
       <c r="BV42" s="11"/>
       <c r="BW42" s="11"/>
@@ -16802,50 +16795,50 @@
       <c r="CC42" s="11"/>
     </row>
     <row r="43" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="254"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="255">
+      <c r="A43" s="218"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="219">
         <f>SUM(D43,AN43)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="85"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
-      <c r="AD43" s="85"/>
-      <c r="AE43" s="85"/>
-      <c r="AF43" s="85"/>
-      <c r="AG43" s="85"/>
-      <c r="AH43" s="85"/>
-      <c r="AI43" s="85"/>
-      <c r="AJ43" s="85"/>
-      <c r="AK43" s="85"/>
-      <c r="AL43" s="85"/>
-      <c r="AM43" s="85"/>
-      <c r="AN43" s="189"/>
-      <c r="AO43" s="127"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="84"/>
+      <c r="W43" s="84"/>
+      <c r="X43" s="84"/>
+      <c r="Y43" s="84"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="84"/>
+      <c r="AB43" s="84"/>
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="84"/>
+      <c r="AE43" s="84"/>
+      <c r="AF43" s="84"/>
+      <c r="AG43" s="84"/>
+      <c r="AH43" s="84"/>
+      <c r="AI43" s="84"/>
+      <c r="AJ43" s="84"/>
+      <c r="AK43" s="84"/>
+      <c r="AL43" s="84"/>
+      <c r="AM43" s="84"/>
+      <c r="AN43" s="188"/>
+      <c r="AO43" s="126"/>
       <c r="AP43" s="56"/>
       <c r="BV43" s="11"/>
       <c r="BW43" s="11"/>
@@ -16856,56 +16849,56 @@
       <c r="CC43" s="11"/>
     </row>
     <row r="44" spans="1:82" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A44" s="260" t="s">
+      <c r="A44" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="258">
+      <c r="B44" s="222">
         <f>SUM(B4:B43)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="259">
+      <c r="C44" s="223">
         <f>SUM(C4:C43)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
-      <c r="AC44" s="93"/>
-      <c r="AD44" s="93"/>
-      <c r="AE44" s="77"/>
-      <c r="AF44" s="77"/>
-      <c r="AG44" s="77"/>
-      <c r="AH44" s="77"/>
-      <c r="AI44" s="77"/>
-      <c r="AJ44" s="77"/>
-      <c r="AK44" s="77"/>
-      <c r="AL44" s="77"/>
-      <c r="AM44" s="77"/>
-      <c r="AN44" s="190"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95">
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="92"/>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="92"/>
+      <c r="AC44" s="92"/>
+      <c r="AD44" s="92"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="189"/>
+      <c r="AO44" s="94"/>
+      <c r="AP44" s="94">
         <v>4761</v>
       </c>
       <c r="BV44" s="11"/>
@@ -16917,48 +16910,48 @@
       <c r="CC44" s="11"/>
     </row>
     <row r="45" spans="1:82" ht="19.5" customHeight="1">
-      <c r="A45" s="214"/>
-      <c r="B45" s="215"/>
-      <c r="C45" s="215"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="216"/>
-      <c r="H45" s="216"/>
-      <c r="I45" s="216"/>
-      <c r="J45" s="216"/>
-      <c r="K45" s="216"/>
-      <c r="L45" s="216"/>
-      <c r="M45" s="216"/>
-      <c r="N45" s="216"/>
-      <c r="O45" s="216"/>
-      <c r="P45" s="216"/>
-      <c r="Q45" s="216"/>
-      <c r="R45" s="216"/>
-      <c r="S45" s="216"/>
-      <c r="T45" s="216"/>
-      <c r="U45" s="216"/>
-      <c r="V45" s="216"/>
-      <c r="W45" s="216"/>
-      <c r="X45" s="216"/>
-      <c r="Y45" s="216"/>
-      <c r="Z45" s="216"/>
-      <c r="AA45" s="216"/>
-      <c r="AB45" s="216"/>
-      <c r="AC45" s="216"/>
-      <c r="AD45" s="216"/>
-      <c r="AE45" s="215"/>
-      <c r="AF45" s="215"/>
-      <c r="AG45" s="215"/>
-      <c r="AH45" s="215"/>
-      <c r="AI45" s="215"/>
-      <c r="AJ45" s="215"/>
-      <c r="AK45" s="215"/>
-      <c r="AL45" s="215"/>
-      <c r="AM45" s="215"/>
-      <c r="AN45" s="217"/>
-      <c r="AO45" s="95"/>
-      <c r="AP45" s="95"/>
+      <c r="A45" s="212"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="214"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="214"/>
+      <c r="L45" s="214"/>
+      <c r="M45" s="214"/>
+      <c r="N45" s="214"/>
+      <c r="O45" s="214"/>
+      <c r="P45" s="214"/>
+      <c r="Q45" s="214"/>
+      <c r="R45" s="214"/>
+      <c r="S45" s="214"/>
+      <c r="T45" s="214"/>
+      <c r="U45" s="214"/>
+      <c r="V45" s="214"/>
+      <c r="W45" s="214"/>
+      <c r="X45" s="214"/>
+      <c r="Y45" s="214"/>
+      <c r="Z45" s="214"/>
+      <c r="AA45" s="214"/>
+      <c r="AB45" s="214"/>
+      <c r="AC45" s="214"/>
+      <c r="AD45" s="214"/>
+      <c r="AE45" s="213"/>
+      <c r="AF45" s="213"/>
+      <c r="AG45" s="213"/>
+      <c r="AH45" s="213"/>
+      <c r="AI45" s="213"/>
+      <c r="AJ45" s="213"/>
+      <c r="AK45" s="213"/>
+      <c r="AL45" s="213"/>
+      <c r="AM45" s="213"/>
+      <c r="AN45" s="215"/>
+      <c r="AO45" s="94"/>
+      <c r="AP45" s="94"/>
       <c r="BV45" s="11"/>
       <c r="BW45" s="11"/>
       <c r="BX45" s="11"/>
@@ -17131,7 +17124,7 @@
     </row>
     <row r="47" spans="1:82">
       <c r="A47" s="65"/>
-      <c r="B47" s="87"/>
+      <c r="B47" s="86"/>
       <c r="C47" s="20" t="e">
         <f>SUM($E$4:E6)/($B$4+$B$5+$B$6)</f>
         <v>#DIV/0!</v>
@@ -17272,7 +17265,7 @@
         <f>SUM($E$4:AM6)/($B$4+$B$5+$B$6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL47" s="207" t="e">
+      <c r="AL47" s="205" t="e">
         <f>SUM($E$4:AN6)/($B$4+$B$5+$B$6)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17283,9 +17276,9 @@
       <c r="AZ47" s="15"/>
       <c r="BA47" s="15"/>
       <c r="BB47" s="15"/>
-      <c r="BG47" s="74"/>
-      <c r="BH47" s="74"/>
-      <c r="BI47" s="74"/>
+      <c r="BG47" s="73"/>
+      <c r="BH47" s="73"/>
+      <c r="BI47" s="73"/>
       <c r="BN47"/>
       <c r="BO47"/>
       <c r="BP47"/>
@@ -17304,7 +17297,7 @@
     </row>
     <row r="48" spans="1:82">
       <c r="A48" s="65"/>
-      <c r="B48" s="87"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="20" t="e">
         <f>SUM($H$7:H9)/($B$7+$B$8+$B$9)</f>
         <v>#DIV/0!</v>
@@ -17433,7 +17426,7 @@
         <f>SUM($H$7:AM9)/($B$7+$B$8+$B$9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI48" s="207" t="e">
+      <c r="AI48" s="205" t="e">
         <f>SUM($H$7:AN9)/($B$7+$B$8+$B$9)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17447,9 +17440,9 @@
       <c r="AZ48" s="15"/>
       <c r="BA48" s="15"/>
       <c r="BB48" s="15"/>
-      <c r="BG48" s="74"/>
-      <c r="BH48" s="74"/>
-      <c r="BI48" s="74"/>
+      <c r="BG48" s="73"/>
+      <c r="BH48" s="73"/>
+      <c r="BI48" s="73"/>
       <c r="BN48"/>
       <c r="BO48"/>
       <c r="BP48"/>
@@ -17468,7 +17461,7 @@
     </row>
     <row r="49" spans="1:81">
       <c r="A49" s="65"/>
-      <c r="B49" s="87"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="20" t="e">
         <f>SUM($K$10:K12)/($B$10+$B$11+$B$12)</f>
         <v>#DIV/0!</v>
@@ -17585,7 +17578,7 @@
         <f>SUM($K$10:AM12)/($B$10+$B$11+$B$12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF49" s="207" t="e">
+      <c r="AF49" s="205" t="e">
         <f>SUM($K$10:AN12)/($B$10+$B$11+$B$12)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17602,9 +17595,9 @@
       <c r="AZ49" s="15"/>
       <c r="BA49" s="15"/>
       <c r="BB49" s="15"/>
-      <c r="BG49" s="74"/>
-      <c r="BH49" s="74"/>
-      <c r="BI49" s="74"/>
+      <c r="BG49" s="73"/>
+      <c r="BH49" s="73"/>
+      <c r="BI49" s="73"/>
       <c r="BN49"/>
       <c r="BO49"/>
       <c r="BP49"/>
@@ -17623,7 +17616,7 @@
     </row>
     <row r="50" spans="1:81">
       <c r="A50" s="65"/>
-      <c r="B50" s="87"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="20" t="e">
         <f>SUM($N$13:N15)/($B$13+$B$14+$B$15)</f>
         <v>#DIV/0!</v>
@@ -17728,7 +17721,7 @@
         <f>SUM($N$13:AM15)/($B$13+$B$14+$B$15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="207" t="e">
+      <c r="AC50" s="205" t="e">
         <f>SUM($N$13:AN15)/($B$13+$B$14+$B$15)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17748,9 +17741,9 @@
       <c r="AZ50" s="15"/>
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
-      <c r="BG50" s="74"/>
-      <c r="BH50" s="74"/>
-      <c r="BI50" s="74"/>
+      <c r="BG50" s="73"/>
+      <c r="BH50" s="73"/>
+      <c r="BI50" s="73"/>
       <c r="BN50"/>
       <c r="BO50"/>
       <c r="BP50"/>
@@ -17769,7 +17762,7 @@
     </row>
     <row r="51" spans="1:81">
       <c r="A51" s="65"/>
-      <c r="B51" s="87"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="20" t="e">
         <f>SUM($N$16:Q18)/($B$16+$B$17+$B$18)</f>
         <v>#DIV/0!</v>
@@ -17862,7 +17855,7 @@
         <f>SUM($N$16:AM18)/($B$16+$B$17+$B$18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z51" s="207" t="e">
+      <c r="Z51" s="205" t="e">
         <f>SUM($N$16:AN18)/($B$16+$B$17+$B$18)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17885,9 +17878,9 @@
       <c r="AZ51" s="15"/>
       <c r="BA51" s="15"/>
       <c r="BB51" s="15"/>
-      <c r="BG51" s="74"/>
-      <c r="BH51" s="74"/>
-      <c r="BI51" s="74"/>
+      <c r="BG51" s="73"/>
+      <c r="BH51" s="73"/>
+      <c r="BI51" s="73"/>
       <c r="BN51"/>
       <c r="BO51"/>
       <c r="BP51"/>
@@ -17906,7 +17899,7 @@
     </row>
     <row r="52" spans="1:81">
       <c r="A52" s="65"/>
-      <c r="B52" s="87"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="20" t="e">
         <f>SUM($T$19:T21)/($B$19+$B$20+$B$21)</f>
         <v>#DIV/0!</v>
@@ -17987,7 +17980,7 @@
         <f>SUM($T$19:AM21)/($B$19+$B$20+$B$21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W52" s="207" t="e">
+      <c r="W52" s="205" t="e">
         <f>SUM($T$19:AN21)/($B$19+$B$20+$B$21)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18013,9 +18006,9 @@
       <c r="AZ52" s="15"/>
       <c r="BA52" s="15"/>
       <c r="BB52" s="15"/>
-      <c r="BG52" s="74"/>
-      <c r="BH52" s="74"/>
-      <c r="BI52" s="74"/>
+      <c r="BG52" s="73"/>
+      <c r="BH52" s="73"/>
+      <c r="BI52" s="73"/>
       <c r="BN52"/>
       <c r="BO52"/>
       <c r="BP52"/>
@@ -18034,7 +18027,7 @@
     </row>
     <row r="53" spans="1:81">
       <c r="A53" s="65"/>
-      <c r="B53" s="87"/>
+      <c r="B53" s="86"/>
       <c r="C53" s="20" t="e">
         <f>SUM($W$22:W24)/($B$22+$B$23+$B$24)</f>
         <v>#DIV/0!</v>
@@ -18103,7 +18096,7 @@
         <f>SUM($W$22:AM24)/($B$22+$B$23+$B$24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T53" s="207" t="e">
+      <c r="T53" s="205" t="e">
         <f>SUM($W$22:AN24)/($B$22+$B$23+$B$24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18132,9 +18125,9 @@
       <c r="AZ53" s="15"/>
       <c r="BA53" s="15"/>
       <c r="BB53" s="15"/>
-      <c r="BG53" s="74"/>
-      <c r="BH53" s="74"/>
-      <c r="BI53" s="74"/>
+      <c r="BG53" s="73"/>
+      <c r="BH53" s="73"/>
+      <c r="BI53" s="73"/>
       <c r="BN53"/>
       <c r="BO53"/>
       <c r="BP53"/>
@@ -18153,7 +18146,7 @@
     </row>
     <row r="54" spans="1:81">
       <c r="A54" s="65"/>
-      <c r="B54" s="87"/>
+      <c r="B54" s="86"/>
       <c r="C54" s="20" t="e">
         <f>SUM($Z$25:$Z$27)/($B$25+$B$26+$B$27)</f>
         <v>#DIV/0!</v>
@@ -18210,7 +18203,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q54" s="207" t="e">
+      <c r="Q54" s="205" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -18242,9 +18235,9 @@
       <c r="AZ54" s="15"/>
       <c r="BA54" s="15"/>
       <c r="BB54" s="15"/>
-      <c r="BG54" s="74"/>
-      <c r="BH54" s="74"/>
-      <c r="BI54" s="74"/>
+      <c r="BG54" s="73"/>
+      <c r="BH54" s="73"/>
+      <c r="BI54" s="73"/>
       <c r="BN54"/>
       <c r="BO54"/>
       <c r="BP54"/>
@@ -18263,7 +18256,7 @@
     </row>
     <row r="55" spans="1:81">
       <c r="A55" s="65"/>
-      <c r="B55" s="87"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="20" t="e">
         <f>SUM($AC$28:AC30)/($B$28+$B$29+$B$30)</f>
         <v>#DIV/0!</v>
@@ -18308,7 +18301,7 @@
         <f>SUM($AC$28:AM30)/($B$28+$B$29+$B$30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N55" s="207" t="e">
+      <c r="N55" s="205" t="e">
         <f>SUM($AC$28:AN30)/($B$28+$B$29+$B$30)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18343,9 +18336,9 @@
       <c r="AZ55" s="15"/>
       <c r="BA55" s="15"/>
       <c r="BB55" s="15"/>
-      <c r="BG55" s="74"/>
-      <c r="BH55" s="74"/>
-      <c r="BI55" s="74"/>
+      <c r="BG55" s="73"/>
+      <c r="BH55" s="73"/>
+      <c r="BI55" s="73"/>
       <c r="BN55"/>
       <c r="BO55"/>
       <c r="BP55"/>
@@ -18364,7 +18357,7 @@
     </row>
     <row r="56" spans="1:81">
       <c r="A56" s="65"/>
-      <c r="B56" s="87"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="20" t="e">
         <f>SUM($AF$31:AF33)/($B$31+$B$32+$B$33)</f>
         <v>#DIV/0!</v>
@@ -18397,7 +18390,7 @@
         <f>SUM($AF$31:AM33)/($B$31+$B$32+$B$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K56" s="207" t="e">
+      <c r="K56" s="205" t="e">
         <f>SUM($AF$31:AN33)/($B$31+$B$32+$B$33)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18435,9 +18428,9 @@
       <c r="AZ56" s="15"/>
       <c r="BA56" s="15"/>
       <c r="BB56" s="15"/>
-      <c r="BG56" s="74"/>
-      <c r="BH56" s="74"/>
-      <c r="BI56" s="74"/>
+      <c r="BG56" s="73"/>
+      <c r="BH56" s="73"/>
+      <c r="BI56" s="73"/>
       <c r="BN56"/>
       <c r="BO56"/>
       <c r="BP56"/>
@@ -18456,7 +18449,7 @@
     </row>
     <row r="57" spans="1:81">
       <c r="A57" s="65"/>
-      <c r="B57" s="87"/>
+      <c r="B57" s="86"/>
       <c r="C57" s="20" t="e">
         <f>SUM($AI$34:AI36)/($B$34+$B$35+$B$36)</f>
         <v>#DIV/0!</v>
@@ -18477,7 +18470,7 @@
         <f>SUM($AI$34:AM36)/($B$34+$B$35+$B$36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="207" t="e">
+      <c r="H57" s="205" t="e">
         <f>SUM($AI$34:AN36)/($B$34+$B$35+$B$36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18518,9 +18511,9 @@
       <c r="AZ57" s="15"/>
       <c r="BA57" s="15"/>
       <c r="BB57" s="15"/>
-      <c r="BG57" s="74"/>
-      <c r="BH57" s="74"/>
-      <c r="BI57" s="74"/>
+      <c r="BG57" s="73"/>
+      <c r="BH57" s="73"/>
+      <c r="BI57" s="73"/>
       <c r="BN57"/>
       <c r="BO57"/>
       <c r="BP57"/>
@@ -18539,7 +18532,7 @@
     </row>
     <row r="58" spans="1:81">
       <c r="A58" s="65"/>
-      <c r="B58" s="87"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="20" t="e">
         <f>SUM($AL$37:AL39)/($B$37+$B$38+$B$39)</f>
         <v>#DIV/0!</v>
@@ -18548,7 +18541,7 @@
         <f>SUM($AL$37:AM39)/($B$37+$B$38+$B$39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E58" s="207" t="e">
+      <c r="E58" s="205" t="e">
         <f>SUM($AL$37:AN39)/($B$37+$B$38+$B$39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18592,9 +18585,9 @@
       <c r="AZ58" s="15"/>
       <c r="BA58" s="15"/>
       <c r="BB58" s="15"/>
-      <c r="BG58" s="74"/>
-      <c r="BH58" s="74"/>
-      <c r="BI58" s="74"/>
+      <c r="BG58" s="73"/>
+      <c r="BH58" s="73"/>
+      <c r="BI58" s="73"/>
       <c r="BN58"/>
       <c r="BO58"/>
       <c r="BP58"/>
@@ -18613,7 +18606,7 @@
     </row>
     <row r="59" spans="1:81">
       <c r="A59" s="65"/>
-      <c r="B59" s="87"/>
+      <c r="B59" s="86"/>
       <c r="C59" s="20" t="e">
         <f>SUM($AN$40:AN42)/($B$40+$B$41+$B$42)</f>
         <v>#DIV/0!</v>
@@ -18660,9 +18653,9 @@
       <c r="AZ59" s="15"/>
       <c r="BA59" s="15"/>
       <c r="BB59" s="15"/>
-      <c r="BG59" s="74"/>
-      <c r="BH59" s="74"/>
-      <c r="BI59" s="74"/>
+      <c r="BG59" s="73"/>
+      <c r="BH59" s="73"/>
+      <c r="BI59" s="73"/>
       <c r="BN59"/>
       <c r="BO59"/>
       <c r="BP59"/>
@@ -18704,6 +18697,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="Y2:Y3"/>
@@ -18720,30 +18737,6 @@
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18761,11 +18754,11 @@
   </sheetPr>
   <dimension ref="A1:CF100"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="AN43" sqref="D4:AN43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -18817,10 +18810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="248"/>
+      <c r="B1" s="252"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -18865,52 +18858,52 @@
       <c r="CF1" s="11"/>
     </row>
     <row r="2" spans="1:84" s="13" customFormat="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="255" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="232"/>
-      <c r="AB2" s="232"/>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="232"/>
-      <c r="AJ2" s="232"/>
-      <c r="AK2" s="232"/>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="244"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="239"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="239"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="239"/>
+      <c r="AJ2" s="239"/>
+      <c r="AK2" s="239"/>
+      <c r="AL2" s="239"/>
+      <c r="AM2" s="239"/>
+      <c r="AN2" s="242"/>
       <c r="AO2" s="63" t="s">
         <v>33</v>
       </c>
@@ -18919,58 +18912,58 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="13" customFormat="1" ht="27">
-      <c r="A3" s="250"/>
-      <c r="B3" s="236"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="236"/>
-      <c r="W3" s="233"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="233"/>
-      <c r="Z3" s="233"/>
-      <c r="AA3" s="233"/>
-      <c r="AB3" s="233"/>
-      <c r="AC3" s="233"/>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="233"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="233"/>
-      <c r="AH3" s="233"/>
-      <c r="AI3" s="233"/>
-      <c r="AJ3" s="233"/>
-      <c r="AK3" s="233"/>
-      <c r="AL3" s="233"/>
-      <c r="AM3" s="233"/>
-      <c r="AN3" s="245"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="243"/>
       <c r="AO3" s="62"/>
     </row>
     <row r="4" spans="1:84" ht="16.5" customHeight="1">
       <c r="A4" s="68"/>
       <c r="B4" s="64"/>
-      <c r="C4" s="209">
+      <c r="C4" s="207">
         <f>SUM(D4,AN4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="71">
         <v>0</v>
       </c>
       <c r="E4" s="71">
@@ -19088,13 +19081,13 @@
     </row>
     <row r="5" spans="1:84" ht="16.5" customHeight="1">
       <c r="A5" s="68"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="209">
+      <c r="B5" s="95"/>
+      <c r="C5" s="207">
         <f t="shared" ref="C5:C42" si="0">SUM(D5,AN5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="73">
+      <c r="E5" s="71">
         <v>0</v>
       </c>
       <c r="F5" s="71">
@@ -19209,14 +19202,14 @@
     </row>
     <row r="6" spans="1:84" ht="16.5" customHeight="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="209">
+      <c r="B6" s="95"/>
+      <c r="C6" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="73">
+      <c r="F6" s="71">
         <v>0</v>
       </c>
       <c r="G6" s="71">
@@ -19328,15 +19321,15 @@
     </row>
     <row r="7" spans="1:84" ht="16.5" customHeight="1">
       <c r="A7" s="68"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="209">
+      <c r="B7" s="95"/>
+      <c r="C7" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
-      <c r="G7" s="73">
+      <c r="G7" s="71">
         <v>0</v>
       </c>
       <c r="H7" s="71">
@@ -19445,8 +19438,8 @@
     </row>
     <row r="8" spans="1:84" ht="16.5" customHeight="1">
       <c r="A8" s="68"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="209">
+      <c r="B8" s="95"/>
+      <c r="C8" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19454,7 +19447,7 @@
       <c r="E8" s="72"/>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
-      <c r="H8" s="73">
+      <c r="H8" s="71">
         <v>0</v>
       </c>
       <c r="I8" s="71">
@@ -19560,8 +19553,8 @@
     </row>
     <row r="9" spans="1:84" ht="16.5" customHeight="1">
       <c r="A9" s="68"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="209">
+      <c r="B9" s="95"/>
+      <c r="C9" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19570,7 +19563,7 @@
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
-      <c r="I9" s="73">
+      <c r="I9" s="71">
         <v>0</v>
       </c>
       <c r="J9" s="71">
@@ -19673,8 +19666,8 @@
     </row>
     <row r="10" spans="1:84" ht="16.5" customHeight="1">
       <c r="A10" s="68"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="209">
+      <c r="B10" s="95"/>
+      <c r="C10" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19684,7 +19677,7 @@
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="73">
+      <c r="J10" s="71">
         <v>0</v>
       </c>
       <c r="K10" s="71">
@@ -19784,8 +19777,8 @@
     </row>
     <row r="11" spans="1:84" ht="16.5" customHeight="1">
       <c r="A11" s="68"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="209">
+      <c r="B11" s="95"/>
+      <c r="C11" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19796,7 +19789,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="73">
+      <c r="K11" s="71">
         <v>0</v>
       </c>
       <c r="L11" s="71">
@@ -19893,8 +19886,8 @@
     </row>
     <row r="12" spans="1:84" ht="16.5" customHeight="1">
       <c r="A12" s="68"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="209">
+      <c r="B12" s="95"/>
+      <c r="C12" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19906,7 +19899,7 @@
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
-      <c r="L12" s="73">
+      <c r="L12" s="71">
         <v>0</v>
       </c>
       <c r="M12" s="71">
@@ -20000,8 +19993,8 @@
     </row>
     <row r="13" spans="1:84" ht="16.5" customHeight="1">
       <c r="A13" s="68"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="209">
+      <c r="B13" s="95"/>
+      <c r="C13" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20014,7 +20007,7 @@
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
-      <c r="M13" s="73">
+      <c r="M13" s="71">
         <v>0</v>
       </c>
       <c r="N13" s="71">
@@ -20105,8 +20098,8 @@
     </row>
     <row r="14" spans="1:84" ht="16.5" customHeight="1">
       <c r="A14" s="68"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="209">
+      <c r="B14" s="95"/>
+      <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20120,7 +20113,7 @@
       <c r="K14" s="72"/>
       <c r="L14" s="72"/>
       <c r="M14" s="72"/>
-      <c r="N14" s="73">
+      <c r="N14" s="71">
         <v>0</v>
       </c>
       <c r="O14" s="71">
@@ -20208,8 +20201,8 @@
     </row>
     <row r="15" spans="1:84" ht="16.5" customHeight="1">
       <c r="A15" s="68"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="209">
+      <c r="B15" s="95"/>
+      <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20224,7 +20217,7 @@
       <c r="L15" s="72"/>
       <c r="M15" s="72"/>
       <c r="N15" s="72"/>
-      <c r="O15" s="73">
+      <c r="O15" s="71">
         <v>0</v>
       </c>
       <c r="P15" s="71">
@@ -20309,8 +20302,8 @@
     </row>
     <row r="16" spans="1:84" ht="16.5" customHeight="1">
       <c r="A16" s="68"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="209">
+      <c r="B16" s="95"/>
+      <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20326,7 +20319,7 @@
       <c r="M16" s="72"/>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
-      <c r="P16" s="73">
+      <c r="P16" s="71">
         <v>0</v>
       </c>
       <c r="Q16" s="71">
@@ -20408,8 +20401,8 @@
     </row>
     <row r="17" spans="1:84" ht="16.5" customHeight="1">
       <c r="A17" s="68"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="209">
+      <c r="B17" s="95"/>
+      <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20426,7 +20419,7 @@
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="73">
+      <c r="Q17" s="71">
         <v>0</v>
       </c>
       <c r="R17" s="71">
@@ -20505,8 +20498,8 @@
     </row>
     <row r="18" spans="1:84" ht="16.5" customHeight="1">
       <c r="A18" s="68"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="209">
+      <c r="B18" s="95"/>
+      <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20524,7 +20517,7 @@
       <c r="O18" s="72"/>
       <c r="P18" s="72"/>
       <c r="Q18" s="72"/>
-      <c r="R18" s="73">
+      <c r="R18" s="71">
         <v>0</v>
       </c>
       <c r="S18" s="71">
@@ -20600,8 +20593,8 @@
     </row>
     <row r="19" spans="1:84" ht="16.5" customHeight="1">
       <c r="A19" s="68"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="209">
+      <c r="B19" s="95"/>
+      <c r="C19" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20620,7 +20613,7 @@
       <c r="P19" s="72"/>
       <c r="Q19" s="72"/>
       <c r="R19" s="72"/>
-      <c r="S19" s="73">
+      <c r="S19" s="71">
         <v>0</v>
       </c>
       <c r="T19" s="71">
@@ -20693,8 +20686,8 @@
     </row>
     <row r="20" spans="1:84" ht="16.5" customHeight="1">
       <c r="A20" s="68"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="209">
+      <c r="B20" s="95"/>
+      <c r="C20" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20714,7 +20707,7 @@
       <c r="Q20" s="72"/>
       <c r="R20" s="72"/>
       <c r="S20" s="72"/>
-      <c r="T20" s="73">
+      <c r="T20" s="71">
         <v>0</v>
       </c>
       <c r="U20" s="71">
@@ -20784,8 +20777,8 @@
     </row>
     <row r="21" spans="1:84" ht="16.5" customHeight="1">
       <c r="A21" s="68"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="209">
+      <c r="B21" s="95"/>
+      <c r="C21" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20806,7 +20799,7 @@
       <c r="R21" s="72"/>
       <c r="S21" s="72"/>
       <c r="T21" s="72"/>
-      <c r="U21" s="73">
+      <c r="U21" s="71">
         <v>0</v>
       </c>
       <c r="V21" s="71">
@@ -20873,8 +20866,8 @@
     </row>
     <row r="22" spans="1:84" ht="16.5" customHeight="1">
       <c r="A22" s="68"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="209">
+      <c r="B22" s="95"/>
+      <c r="C22" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20896,7 +20889,7 @@
       <c r="S22" s="72"/>
       <c r="T22" s="72"/>
       <c r="U22" s="72"/>
-      <c r="V22" s="73">
+      <c r="V22" s="71">
         <v>0</v>
       </c>
       <c r="W22" s="71">
@@ -20960,31 +20953,31 @@
     </row>
     <row r="23" spans="1:84" ht="16.5" customHeight="1">
       <c r="A23" s="68"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="209">
+      <c r="B23" s="95"/>
+      <c r="C23" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="191">
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="259">
         <v>0</v>
       </c>
       <c r="X23" s="71">
@@ -21045,8 +21038,8 @@
     </row>
     <row r="24" spans="1:84" ht="16.5" customHeight="1">
       <c r="A24" s="68"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="209">
+      <c r="B24" s="95"/>
+      <c r="C24" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21070,7 +21063,7 @@
       <c r="U24" s="72"/>
       <c r="V24" s="72"/>
       <c r="W24" s="72"/>
-      <c r="X24" s="191">
+      <c r="X24" s="259">
         <v>0</v>
       </c>
       <c r="Y24" s="71">
@@ -21122,14 +21115,14 @@
         <v>0</v>
       </c>
       <c r="AO24" s="56"/>
-      <c r="AP24" s="127"/>
+      <c r="AP24" s="126"/>
       <c r="CE24" s="11"/>
       <c r="CF24" s="11"/>
     </row>
     <row r="25" spans="1:84" ht="16.5" customHeight="1">
       <c r="A25" s="68"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="209">
+      <c r="B25" s="95"/>
+      <c r="C25" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21154,7 +21147,7 @@
       <c r="V25" s="72"/>
       <c r="W25" s="72"/>
       <c r="X25" s="72"/>
-      <c r="Y25" s="191">
+      <c r="Y25" s="259">
         <v>0</v>
       </c>
       <c r="Z25" s="71">
@@ -21203,14 +21196,14 @@
         <v>0</v>
       </c>
       <c r="AO25" s="56"/>
-      <c r="AP25" s="127"/>
+      <c r="AP25" s="126"/>
       <c r="CE25" s="11"/>
       <c r="CF25" s="11"/>
     </row>
     <row r="26" spans="1:84" ht="16.5" customHeight="1">
       <c r="A26" s="68"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="209">
+      <c r="B26" s="95"/>
+      <c r="C26" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21236,7 +21229,7 @@
       <c r="W26" s="72"/>
       <c r="X26" s="72"/>
       <c r="Y26" s="72"/>
-      <c r="Z26" s="73">
+      <c r="Z26" s="71">
         <v>0</v>
       </c>
       <c r="AA26" s="71">
@@ -21282,41 +21275,41 @@
         <v>0</v>
       </c>
       <c r="AO26" s="56"/>
-      <c r="AP26" s="127"/>
+      <c r="AP26" s="126"/>
       <c r="CE26" s="11"/>
       <c r="CF26" s="11"/>
     </row>
     <row r="27" spans="1:84" ht="16.5" customHeight="1">
       <c r="A27" s="68"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="209">
+      <c r="B27" s="95"/>
+      <c r="C27" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="73">
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="71">
         <v>0</v>
       </c>
       <c r="AB27" s="71">
@@ -21359,42 +21352,42 @@
         <v>0</v>
       </c>
       <c r="AO27" s="56"/>
-      <c r="AP27" s="127"/>
+      <c r="AP27" s="126"/>
       <c r="CE27" s="11"/>
       <c r="CF27" s="11"/>
     </row>
     <row r="28" spans="1:84" ht="16.5" customHeight="1">
       <c r="A28" s="68"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="209">
+      <c r="B28" s="95"/>
+      <c r="C28" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="73">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="71">
         <v>0</v>
       </c>
       <c r="AC28" s="71">
@@ -21434,43 +21427,43 @@
         <v>0</v>
       </c>
       <c r="AO28" s="56"/>
-      <c r="AP28" s="127"/>
+      <c r="AP28" s="126"/>
       <c r="CE28" s="11"/>
       <c r="CF28" s="11"/>
     </row>
     <row r="29" spans="1:84" ht="16.5" customHeight="1">
       <c r="A29" s="68"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="209">
+      <c r="B29" s="95"/>
+      <c r="C29" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="73">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="71">
         <v>0</v>
       </c>
       <c r="AD29" s="71">
@@ -21507,44 +21500,44 @@
         <v>0</v>
       </c>
       <c r="AO29" s="56"/>
-      <c r="AP29" s="127"/>
+      <c r="AP29" s="126"/>
       <c r="CE29" s="11"/>
       <c r="CF29" s="11"/>
     </row>
     <row r="30" spans="1:84" ht="16.5" customHeight="1">
       <c r="A30" s="68"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="209">
+      <c r="B30" s="95"/>
+      <c r="C30" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="73">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="71">
         <v>0</v>
       </c>
       <c r="AE30" s="71">
@@ -21578,45 +21571,45 @@
         <v>0</v>
       </c>
       <c r="AO30" s="56"/>
-      <c r="AP30" s="127"/>
+      <c r="AP30" s="126"/>
       <c r="CE30" s="11"/>
       <c r="CF30" s="11"/>
     </row>
     <row r="31" spans="1:84" ht="16.5" customHeight="1">
       <c r="A31" s="68"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="209">
+      <c r="B31" s="95"/>
+      <c r="C31" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="73">
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="71">
         <v>0</v>
       </c>
       <c r="AF31" s="71">
@@ -21647,46 +21640,46 @@
         <v>0</v>
       </c>
       <c r="AO31" s="56"/>
-      <c r="AP31" s="127"/>
+      <c r="AP31" s="126"/>
       <c r="CE31" s="11"/>
       <c r="CF31" s="11"/>
     </row>
     <row r="32" spans="1:84" ht="16.5" customHeight="1">
       <c r="A32" s="68"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="209">
+      <c r="B32" s="95"/>
+      <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="73">
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="71">
         <v>0</v>
       </c>
       <c r="AG32" s="71">
@@ -21714,47 +21707,47 @@
         <v>0</v>
       </c>
       <c r="AO32" s="56"/>
-      <c r="AP32" s="127"/>
+      <c r="AP32" s="126"/>
       <c r="CE32" s="11"/>
       <c r="CF32" s="11"/>
     </row>
     <row r="33" spans="1:84" ht="16.5" customHeight="1">
       <c r="A33" s="68"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="209">
+      <c r="B33" s="95"/>
+      <c r="C33" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="73">
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="71">
         <v>0</v>
       </c>
       <c r="AH33" s="71">
@@ -21779,48 +21772,48 @@
         <v>0</v>
       </c>
       <c r="AO33" s="56"/>
-      <c r="AP33" s="127"/>
+      <c r="AP33" s="126"/>
       <c r="CE33" s="11"/>
       <c r="CF33" s="11"/>
     </row>
     <row r="34" spans="1:84" ht="16.5" customHeight="1">
       <c r="A34" s="68"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="209">
+      <c r="B34" s="95"/>
+      <c r="C34" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="94"/>
-      <c r="AH34" s="73">
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="71">
         <v>0</v>
       </c>
       <c r="AI34" s="71">
@@ -21842,49 +21835,49 @@
         <v>0</v>
       </c>
       <c r="AO34" s="56"/>
-      <c r="AP34" s="127"/>
+      <c r="AP34" s="126"/>
       <c r="CE34" s="11"/>
       <c r="CF34" s="11"/>
     </row>
     <row r="35" spans="1:84" ht="16.5" customHeight="1">
       <c r="A35" s="68"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="209">
+      <c r="B35" s="95"/>
+      <c r="C35" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
-      <c r="AF35" s="94"/>
-      <c r="AG35" s="94"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
       <c r="AH35" s="72"/>
-      <c r="AI35" s="73">
+      <c r="AI35" s="71">
         <v>0</v>
       </c>
       <c r="AJ35" s="71">
@@ -21903,50 +21896,50 @@
         <v>0</v>
       </c>
       <c r="AO35" s="56"/>
-      <c r="AP35" s="127"/>
+      <c r="AP35" s="126"/>
       <c r="CE35" s="11"/>
       <c r="CF35" s="11"/>
     </row>
     <row r="36" spans="1:84" ht="16.5" customHeight="1">
       <c r="A36" s="68"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="209">
+      <c r="B36" s="95"/>
+      <c r="C36" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="94"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="94"/>
-      <c r="AE36" s="94"/>
-      <c r="AF36" s="94"/>
-      <c r="AG36" s="94"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
       <c r="AH36" s="72"/>
       <c r="AI36" s="72"/>
-      <c r="AJ36" s="73">
+      <c r="AJ36" s="71">
         <v>0</v>
       </c>
       <c r="AK36" s="71">
@@ -21962,51 +21955,51 @@
         <v>0</v>
       </c>
       <c r="AO36" s="56"/>
-      <c r="AP36" s="127"/>
+      <c r="AP36" s="126"/>
       <c r="CE36" s="11"/>
       <c r="CF36" s="11"/>
     </row>
     <row r="37" spans="1:84" ht="16.5" customHeight="1">
       <c r="A37" s="68"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="209">
+      <c r="B37" s="95"/>
+      <c r="C37" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="94"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="94"/>
-      <c r="AE37" s="94"/>
-      <c r="AF37" s="94"/>
-      <c r="AG37" s="94"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
       <c r="AH37" s="72"/>
       <c r="AI37" s="72"/>
       <c r="AJ37" s="72"/>
-      <c r="AK37" s="73">
+      <c r="AK37" s="71">
         <v>0</v>
       </c>
       <c r="AL37" s="71">
@@ -22019,52 +22012,52 @@
         <v>0</v>
       </c>
       <c r="AO37" s="56"/>
-      <c r="AP37" s="127"/>
+      <c r="AP37" s="126"/>
       <c r="CE37" s="11"/>
       <c r="CF37" s="11"/>
     </row>
     <row r="38" spans="1:84" ht="16.5" customHeight="1">
       <c r="A38" s="68"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="209">
+      <c r="B38" s="95"/>
+      <c r="C38" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
-      <c r="AB38" s="94"/>
-      <c r="AC38" s="94"/>
-      <c r="AD38" s="94"/>
-      <c r="AE38" s="94"/>
-      <c r="AF38" s="94"/>
-      <c r="AG38" s="94"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
       <c r="AH38" s="72"/>
       <c r="AI38" s="72"/>
       <c r="AJ38" s="72"/>
       <c r="AK38" s="72"/>
-      <c r="AL38" s="73">
+      <c r="AL38" s="71">
         <v>0</v>
       </c>
       <c r="AM38" s="71">
@@ -22074,312 +22067,312 @@
         <v>0</v>
       </c>
       <c r="AO38" s="56"/>
-      <c r="AP38" s="127"/>
+      <c r="AP38" s="126"/>
       <c r="CE38" s="11"/>
       <c r="CF38" s="11"/>
     </row>
     <row r="39" spans="1:84" ht="16.5" customHeight="1">
       <c r="A39" s="68"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="209">
+      <c r="B39" s="95"/>
+      <c r="C39" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
-      <c r="AB39" s="94"/>
-      <c r="AC39" s="94"/>
-      <c r="AD39" s="94"/>
-      <c r="AE39" s="94"/>
-      <c r="AF39" s="94"/>
-      <c r="AG39" s="94"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="93"/>
+      <c r="AG39" s="93"/>
       <c r="AH39" s="72"/>
       <c r="AI39" s="72"/>
       <c r="AJ39" s="72"/>
       <c r="AK39" s="72"/>
       <c r="AL39" s="72"/>
-      <c r="AM39" s="73">
+      <c r="AM39" s="71">
         <v>0</v>
       </c>
       <c r="AN39" s="71">
         <v>0</v>
       </c>
       <c r="AO39" s="56"/>
-      <c r="AP39" s="127"/>
+      <c r="AP39" s="126"/>
       <c r="CE39" s="11"/>
       <c r="CF39" s="11"/>
     </row>
     <row r="40" spans="1:84" ht="16.5" customHeight="1">
       <c r="A40" s="68"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="209">
+      <c r="B40" s="95"/>
+      <c r="C40" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="94"/>
-      <c r="AA40" s="94"/>
-      <c r="AB40" s="94"/>
-      <c r="AC40" s="94"/>
-      <c r="AD40" s="94"/>
-      <c r="AE40" s="94"/>
-      <c r="AF40" s="94"/>
-      <c r="AG40" s="94"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="93"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="93"/>
+      <c r="AF40" s="93"/>
+      <c r="AG40" s="93"/>
       <c r="AH40" s="72"/>
       <c r="AI40" s="72"/>
       <c r="AJ40" s="72"/>
       <c r="AK40" s="72"/>
       <c r="AL40" s="72"/>
       <c r="AM40" s="72"/>
-      <c r="AN40" s="73">
+      <c r="AN40" s="71">
         <v>0</v>
       </c>
       <c r="AO40" s="56"/>
-      <c r="AP40" s="127"/>
+      <c r="AP40" s="126"/>
       <c r="CE40" s="11"/>
       <c r="CF40" s="11"/>
     </row>
     <row r="41" spans="1:84" ht="16.5" customHeight="1">
       <c r="A41" s="68"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="209">
+      <c r="B41" s="95"/>
+      <c r="C41" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="94"/>
-      <c r="AA41" s="94"/>
-      <c r="AB41" s="94"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="94"/>
-      <c r="AE41" s="94"/>
-      <c r="AF41" s="94"/>
-      <c r="AG41" s="94"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="93"/>
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="93"/>
+      <c r="AG41" s="93"/>
       <c r="AH41" s="72"/>
       <c r="AI41" s="72"/>
       <c r="AJ41" s="72"/>
       <c r="AK41" s="72"/>
       <c r="AL41" s="72"/>
       <c r="AM41" s="72"/>
-      <c r="AN41" s="188"/>
+      <c r="AN41" s="187"/>
       <c r="AO41" s="56"/>
-      <c r="AP41" s="127"/>
+      <c r="AP41" s="126"/>
       <c r="CE41" s="11"/>
       <c r="CF41" s="11"/>
     </row>
     <row r="42" spans="1:84" ht="16.5" customHeight="1">
       <c r="A42" s="68"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="209">
+      <c r="B42" s="95"/>
+      <c r="C42" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="94"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="94"/>
-      <c r="AE42" s="94"/>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="94"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="93"/>
+      <c r="AG42" s="93"/>
       <c r="AH42" s="72"/>
       <c r="AI42" s="72"/>
       <c r="AJ42" s="72"/>
       <c r="AK42" s="72"/>
       <c r="AL42" s="72"/>
       <c r="AM42" s="72"/>
-      <c r="AN42" s="188"/>
+      <c r="AN42" s="187"/>
       <c r="AO42" s="56"/>
-      <c r="AP42" s="127"/>
+      <c r="AP42" s="126"/>
       <c r="CE42" s="11"/>
       <c r="CF42" s="11"/>
     </row>
     <row r="43" spans="1:84" ht="16.5" customHeight="1" thickBot="1">
       <c r="A43" s="68"/>
       <c r="B43" s="69"/>
-      <c r="C43" s="209">
+      <c r="C43" s="207">
         <f>SUM(D43,AN43)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="85"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
-      <c r="AD43" s="85"/>
-      <c r="AE43" s="85"/>
-      <c r="AF43" s="85"/>
-      <c r="AG43" s="85"/>
-      <c r="AH43" s="85"/>
-      <c r="AI43" s="85"/>
-      <c r="AJ43" s="85"/>
-      <c r="AK43" s="85"/>
-      <c r="AL43" s="85"/>
-      <c r="AM43" s="85"/>
-      <c r="AN43" s="189"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="84"/>
+      <c r="W43" s="84"/>
+      <c r="X43" s="84"/>
+      <c r="Y43" s="84"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="84"/>
+      <c r="AB43" s="84"/>
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="84"/>
+      <c r="AE43" s="84"/>
+      <c r="AF43" s="84"/>
+      <c r="AG43" s="84"/>
+      <c r="AH43" s="84"/>
+      <c r="AI43" s="84"/>
+      <c r="AJ43" s="84"/>
+      <c r="AK43" s="84"/>
+      <c r="AL43" s="84"/>
+      <c r="AM43" s="84"/>
+      <c r="AN43" s="188"/>
       <c r="AO43" s="56"/>
-      <c r="AP43" s="127"/>
+      <c r="AP43" s="126"/>
       <c r="CE43" s="11"/>
       <c r="CF43" s="11"/>
     </row>
     <row r="44" spans="1:84" s="57" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A44" s="257" t="s">
+      <c r="A44" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="258">
+      <c r="B44" s="222">
         <f>SUM(B4:B43)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="259">
+      <c r="C44" s="223">
         <f>SUM(C4:C43)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="256"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="186"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95"/>
+      <c r="D44" s="220"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="88"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
+      <c r="AH44" s="88"/>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="88"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="185"/>
+      <c r="AO44" s="94"/>
+      <c r="AP44" s="94"/>
     </row>
     <row r="45" spans="1:84">
       <c r="A45" s="16" t="s">
@@ -22697,12 +22690,12 @@
         <f>SUM($E$4:AM6)/($B$4+$B$5+$B$6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL47" s="207" t="e">
+      <c r="AL47" s="205" t="e">
         <f>SUM($E$4:AN6)/($B$4+$B$5+$B$6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM47" s="27"/>
-      <c r="AN47" s="75"/>
+      <c r="AN47" s="74"/>
       <c r="AO47" s="15"/>
       <c r="AP47" s="15"/>
       <c r="AQ47" s="15"/>
@@ -22879,7 +22872,7 @@
         <f>SUM($H$7:AM9)/($B$7+$B$8+$B$9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI48" s="207" t="e">
+      <c r="AI48" s="205" t="e">
         <f>SUM($H$7:AN9)/($B$7+$B$8+$B$9)</f>
         <v>#DIV/0!</v>
       </c>
@@ -23052,7 +23045,7 @@
         <f>SUM($K$10:AM12)/($B$10+$B$11+$B$12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF49" s="207" t="e">
+      <c r="AF49" s="205" t="e">
         <f>SUM($K$10:AN12)/($B$10+$B$11+$B$12)</f>
         <v>#DIV/0!</v>
       </c>
@@ -23216,7 +23209,7 @@
         <f>SUM($N$13:AM15)/($B$13+$B$14+$B$15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="207" t="e">
+      <c r="AC50" s="205" t="e">
         <f>SUM($N$13:AN15)/($B$13+$B$14+$B$15)</f>
         <v>#DIV/0!</v>
       </c>
@@ -23371,7 +23364,7 @@
         <f>SUM($N$16:AM18)/($B$16+$B$17+$B$18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z51" s="207" t="e">
+      <c r="Z51" s="205" t="e">
         <f>SUM($N$16:AN18)/($B$16+$B$17+$B$18)</f>
         <v>#DIV/0!</v>
       </c>
@@ -23517,7 +23510,7 @@
         <f>SUM($T$19:AM21)/($B$19+$B$20+$B$21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W52" s="207" t="e">
+      <c r="W52" s="205" t="e">
         <f>SUM($T$19:AN21)/($B$19+$B$20+$B$21)</f>
         <v>#DIV/0!</v>
       </c>
@@ -23654,7 +23647,7 @@
         <f>SUM($W$22:AM24)/($B$22+$B$23+$B$24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T53" s="207" t="e">
+      <c r="T53" s="205" t="e">
         <f>SUM($W$22:AN24)/($B$22+$B$23+$B$24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -23782,7 +23775,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q54" s="207" t="e">
+      <c r="Q54" s="205" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -23901,7 +23894,7 @@
         <f>SUM($AC$28:AM30)/($B$28+$B$29+$B$30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N55" s="207" t="e">
+      <c r="N55" s="205" t="e">
         <f>SUM($AC$28:AN30)/($B$28+$B$29+$B$30)</f>
         <v>#DIV/0!</v>
       </c>
@@ -24011,7 +24004,7 @@
         <f>SUM($AF$31:AM33)/($B$31+$B$32+$B$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K56" s="207" t="e">
+      <c r="K56" s="205" t="e">
         <f>SUM($AF$31:AN33)/($B$31+$B$32+$B$33)</f>
         <v>#DIV/0!</v>
       </c>
@@ -24112,7 +24105,7 @@
         <f>SUM($AI$34:AM36)/($B$34+$B$35+$B$36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="207" t="e">
+      <c r="H57" s="205" t="e">
         <f>SUM($AI$34:AN36)/($B$34+$B$35+$B$36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -24204,7 +24197,7 @@
         <f>SUM($AL$37:AM39)/($B$37+$B$38+$B$39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E58" s="207" t="e">
+      <c r="E58" s="205" t="e">
         <f>SUM($AL$37:AN39)/($B$37+$B$38+$B$39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -24396,19 +24389,19 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
@@ -24423,19 +24416,19 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -24496,21 +24489,21 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
@@ -24519,462 +24512,462 @@
       <c r="A3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:17" ht="18">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="145"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="144"/>
     </row>
     <row r="5" spans="1:17" ht="18">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
     </row>
     <row r="6" spans="1:17" ht="18">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
       <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="18">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
     </row>
     <row r="8" spans="1:17" ht="18">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
     </row>
     <row r="9" spans="1:17" ht="18">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="211"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="209"/>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="19.5">
       <c r="A10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
     </row>
     <row r="11" spans="1:17" ht="18">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="145"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="144"/>
     </row>
     <row r="12" spans="1:17" ht="18">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="150"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="149"/>
     </row>
     <row r="13" spans="1:17" ht="18">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
     </row>
     <row r="14" spans="1:17" ht="18">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-    </row>
-    <row r="15" spans="1:17" s="99" customFormat="1" ht="18">
-      <c r="A15" s="100" t="s">
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+    </row>
+    <row r="15" spans="1:17" s="98" customFormat="1" ht="18">
+      <c r="A15" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:17" ht="18">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="194"/>
-      <c r="P16" s="152"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="151"/>
     </row>
     <row r="17" spans="1:17" ht="19.5">
       <c r="A17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="152"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="151"/>
     </row>
     <row r="18" spans="1:17" ht="18">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="150"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:17" ht="18">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
     </row>
     <row r="20" spans="1:17" ht="18">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
     </row>
     <row r="21" spans="1:17" ht="18">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="90"/>
-    </row>
-    <row r="22" spans="1:17" s="99" customFormat="1" ht="18">
-      <c r="A22" s="100" t="s">
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="89"/>
+    </row>
+    <row r="22" spans="1:17" s="98" customFormat="1" ht="18">
+      <c r="A22" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="142"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="141"/>
     </row>
     <row r="23" spans="1:17" ht="18">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="139"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="138"/>
     </row>
     <row r="24" spans="1:17" ht="18">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="157"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="156"/>
     </row>
     <row r="25" spans="1:17" ht="18">
-      <c r="A25" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="156"/>
+      <c r="A25" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="155"/>
       <c r="P25" s="35"/>
     </row>
     <row r="26" spans="1:17" ht="15.5">
@@ -25049,8 +25042,8 @@
     <col min="12" max="12" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1796875" style="192" customWidth="1"/>
-    <col min="17" max="17" width="6.90625" style="193" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" style="190" customWidth="1"/>
+    <col min="17" max="17" width="6.90625" style="191" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -25058,441 +25051,441 @@
       <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="102" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="9" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
       <c r="O2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="193"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="191"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="19.5">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="206"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="204"/>
       <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:19" ht="18">
       <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="199"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="197"/>
       <c r="R4" s="59"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="19.5">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="199"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="197"/>
       <c r="R5" s="59"/>
     </row>
     <row r="6" spans="1:19" ht="18">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="199"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="197"/>
       <c r="R6" s="60"/>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="19.5">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="200"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="198"/>
       <c r="R7" s="59"/>
     </row>
     <row r="8" spans="1:19" ht="18">
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="200"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="198"/>
       <c r="R8" s="61"/>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="19.5">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="200"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="198"/>
       <c r="R9" s="55"/>
     </row>
     <row r="10" spans="1:19" ht="18">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="200"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="198"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="19.5">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="177"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="200"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="198"/>
     </row>
     <row r="12" spans="1:19" ht="18">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="200"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="198"/>
     </row>
     <row r="13" spans="1:19" ht="19.5">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="200"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="198"/>
     </row>
     <row r="14" spans="1:19" ht="18">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="200"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="198"/>
     </row>
     <row r="15" spans="1:19" ht="19.5">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="201"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199"/>
     </row>
     <row r="16" spans="1:19" ht="18">
       <c r="A16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="202"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="200"/>
     </row>
     <row r="17" spans="1:17" ht="19.5">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="202"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="199"/>
+      <c r="Q17" s="200"/>
     </row>
     <row r="18" spans="1:17" ht="18">
       <c r="A18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="202"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="200"/>
     </row>
     <row r="19" spans="1:17" ht="19.5">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="202"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="200"/>
     </row>
     <row r="20" spans="1:17" ht="18" hidden="1">
       <c r="A20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="202"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="200"/>
     </row>
     <row r="21" spans="1:17" ht="18">
       <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="202"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="200"/>
     </row>
     <row r="23" spans="1:17" ht="18" customHeight="1">
       <c r="B23" s="33"/>
@@ -25526,7 +25519,7 @@
       <c r="N24" s="24"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="O26" s="86"/>
+      <c r="O26" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
